--- a/app/config/tables/scan_HIV_Visit_Record/forms/scan_HIV_Visit_Record/scan_HIV_Visit_Record.xlsx
+++ b/app/config/tables/scan_HIV_Visit_Record/forms/scan_HIV_Visit_Record/scan_HIV_Visit_Record.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\scan_HIV_Visit_Record\forms\scan_HIV_Visit_Record\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="0" windowWidth="18720" windowHeight="14400" activeTab="1"/>
+    <workbookView xWindow="3377" yWindow="0" windowWidth="18720" windowHeight="14400" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="model" sheetId="3" r:id="rId3"/>
     <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="properties" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="78">
   <si>
     <t>setting_name</t>
   </si>
@@ -33,9 +39,6 @@
     <t>display.title</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
     <t>scan_HIV_Visit_Record</t>
   </si>
   <si>
@@ -232,6 +235,33 @@
   </si>
   <si>
     <t>hideInContents</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>colOrder</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>["scan_output_directory","date_of_record_image0_uriFragment","date_of_record_image0_contentType","date_of_record","patient_ID_image0_uriFragment","patient_ID_image0_contentType","patient_ID","patient_name_image0_uriFragment","patient_name_image0_contentType","patient_name","GSM_num_image0_uriFragment","GSM_num_image0_contentType","GSM_num","CD4_count_image0_uriFragment","CD4_count_image0_contentType","CD4_count","CD4_percent_image0_uriFragment","CD4_percent_image0_contentType","CD4_percent","screen_for_tb_image0_uriFragment","screen_for_tb_image0_contentType","screen_for_tb","WHO_stage_image0_uriFragment","WHO_stage_image0_contentType","WHO_stage","date_next_visit_image0_uriFragment","date_next_visit_image0_contentType","date_next_visit","TB_treatment_status_image0_uriFragment","TB_treatment_status_image0_contentType","TB_treatment_status","INH_treatment_status_image0_uriFragment","INH_treatment_status_image0_contentType","INH_treatment_status","CTZ_treatment_status_image0_uriFragment","CTZ_treatment_status_image0_contentType","CTZ_treatment_status","permanent_status_image0_uriFragment","permanent_status_image0_contentType","permanent_status","Name_HU_transferred_to_image0_uriFragment","Name_HU_transferred_to_image0_contentType","Name_HU_transferred_to"]</t>
   </si>
 </sst>
 </file>
@@ -374,6 +404,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -672,495 +705,495 @@
       <selection activeCell="A2" sqref="A2:F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
         <v>64</v>
-      </c>
-      <c r="D28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>65</v>
       </c>
       <c r="F31" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
         <v>55</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
         <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
       </c>
       <c r="F43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" t="s">
         <v>58</v>
-      </c>
-      <c r="D44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
       </c>
       <c r="F47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="B51" t="s">
-        <v>37</v>
-      </c>
       <c r="C51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D52" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F55" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1178,245 +1211,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="3" width="34.5" customWidth="1"/>
+    <col min="1" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1436,22 +1469,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1468,11 +1501,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1483,28 +1518,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>5</v>
       </c>
       <c r="B3">
         <v>201493</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1515,4 +1550,56 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>